--- a/docs/ギア設定.xlsx
+++ b/docs/ギア設定.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kcgacjp-my.sharepoint.com/personal/st081864_m02_kyoto-kcg_ac_jp/Documents/BACKUP/mause/lapis/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{74168B82-E8CC-4B0D-9695-A74470778A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{619FD09B-B64C-4E94-B693-AD4B01AE771B}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{74168B82-E8CC-4B0D-9695-A74470778A86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BBFB15EB-12F3-49F1-9215-EB3AF586E88F}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-1260" yWindow="3795" windowWidth="28800" windowHeight="15435" xr2:uid="{0BFB407E-5214-4D35-95A0-A0D162D1F91F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0BFB407E-5214-4D35-95A0-A0D162D1F91F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000000_);[Red]\(0.0000000\)"/>
   </numFmts>
@@ -300,7 +300,9 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{501A161A-78E8-4814-A9C9-0E407B940FBB}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -612,7 +614,7 @@
   <dimension ref="A2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -821,6 +823,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101002F461D271685004885C52389A49E20ED" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="854f20c4a9684605c9b3ca4619eb413d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a525e278-d6b3-4a74-a382-1bfa10b10144" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35309da89b9bf9501d64260e8e11940c" ns3:_="">
     <xsd:import namespace="a525e278-d6b3-4a74-a382-1bfa10b10144"/>
@@ -990,35 +1007,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A204F9E5-B42C-4B98-91E4-40BED7547251}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2A50915-C519-4320-AEFF-3D60185ABBA4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a525e278-d6b3-4a74-a382-1bfa10b10144"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1040,9 +1032,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2A50915-C519-4320-AEFF-3D60185ABBA4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A204F9E5-B42C-4B98-91E4-40BED7547251}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a525e278-d6b3-4a74-a382-1bfa10b10144"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>